--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3909,7 +3909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>229</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>255</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>292</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>329</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>365</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>467</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>475</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>484</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>492</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>500</v>
       </c>
@@ -9851,12 +9851,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN69">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
